--- a/andes/cases/ieee14/ieee14_esst1a.xlsx
+++ b/andes/cases/ieee14/ieee14_esst1a.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/andes/andes/cases/ieee14/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1919BF6D-6256-6540-9116-617310660B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF28F96F-713F-BF4B-9616-2AACCF4B4C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="21100" firstSheet="4" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" firstSheet="4" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Toggler" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="170">
   <si>
     <t>idx</t>
   </si>
@@ -1890,7 +1890,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1937,8 +1937,8 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>169</v>
       </c>
       <c r="C2">
         <v>1</v>

--- a/andes/cases/ieee14/ieee14_esst1a.xlsx
+++ b/andes/cases/ieee14/ieee14_esst1a.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/andes/andes/cases/ieee14/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF28F96F-713F-BF4B-9616-2AACCF4B4C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE65978F-B91D-554A-B95B-5AFE4B953677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" firstSheet="4" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19200" yWindow="500" windowWidth="19200" windowHeight="21100" firstSheet="4" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Toggler" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="178">
   <si>
     <t>idx</t>
   </si>
@@ -543,6 +543,30 @@
   </si>
   <si>
     <t>ESST1A_1</t>
+  </si>
+  <si>
+    <t>TB1</t>
+  </si>
+  <si>
+    <t>TC1</t>
+  </si>
+  <si>
+    <t>VAMAX</t>
+  </si>
+  <si>
+    <t>VAMIN</t>
+  </si>
+  <si>
+    <t>ILR</t>
+  </si>
+  <si>
+    <t>KLR</t>
+  </si>
+  <si>
+    <t>UELc</t>
+  </si>
+  <si>
+    <t>VOSc</t>
   </si>
 </sst>
 </file>
@@ -1888,9 +1912,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
+      <selection pane="bottomLeft" activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1911,26 +1935,66 @@
       <c r="E1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
+      <c r="F1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
